--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3250"/>
+  <dimension ref="A1:D3253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45881,10 +45881,52 @@
         <v>3395</v>
       </c>
       <c r="C3250">
-        <v>4.35</v>
+        <v>4.29</v>
       </c>
       <c r="D3250" s="2">
         <v>44777</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:4">
+      <c r="A3251" s="1">
+        <v>3249</v>
+      </c>
+      <c r="B3251">
+        <v>3396</v>
+      </c>
+      <c r="C3251">
+        <v>4.44</v>
+      </c>
+      <c r="D3251" s="2">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:4">
+      <c r="A3252" s="1">
+        <v>3250</v>
+      </c>
+      <c r="B3252">
+        <v>3397</v>
+      </c>
+      <c r="C3252">
+        <v>4.37</v>
+      </c>
+      <c r="D3252" s="2">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:4">
+      <c r="A3253" s="1">
+        <v>3251</v>
+      </c>
+      <c r="B3253">
+        <v>3398</v>
+      </c>
+      <c r="C3253">
+        <v>4.44</v>
+      </c>
+      <c r="D3253" s="2">
+        <v>44782</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3253"/>
+  <dimension ref="A1:D3254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45923,10 +45923,24 @@
         <v>3398</v>
       </c>
       <c r="C3253">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="D3253" s="2">
         <v>44782</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:4">
+      <c r="A3254" s="1">
+        <v>3252</v>
+      </c>
+      <c r="B3254">
+        <v>3399</v>
+      </c>
+      <c r="C3254">
+        <v>4.38</v>
+      </c>
+      <c r="D3254" s="2">
+        <v>44783</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3254"/>
+  <dimension ref="A1:D3255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45943,6 +45943,20 @@
         <v>44783</v>
       </c>
     </row>
+    <row r="3255" spans="1:4">
+      <c r="A3255" s="1">
+        <v>3253</v>
+      </c>
+      <c r="B3255">
+        <v>3400</v>
+      </c>
+      <c r="C3255">
+        <v>4.4</v>
+      </c>
+      <c r="D3255" s="2">
+        <v>44784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3255"/>
+  <dimension ref="A1:D3256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45957,6 +45957,20 @@
         <v>44784</v>
       </c>
     </row>
+    <row r="3256" spans="1:4">
+      <c r="A3256" s="1">
+        <v>3254</v>
+      </c>
+      <c r="B3256">
+        <v>3401</v>
+      </c>
+      <c r="C3256">
+        <v>4.38</v>
+      </c>
+      <c r="D3256" s="2">
+        <v>44785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3256"/>
+  <dimension ref="A1:D3259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45971,6 +45971,48 @@
         <v>44785</v>
       </c>
     </row>
+    <row r="3257" spans="1:4">
+      <c r="A3257" s="1">
+        <v>3255</v>
+      </c>
+      <c r="B3257">
+        <v>3402</v>
+      </c>
+      <c r="C3257">
+        <v>4.39</v>
+      </c>
+      <c r="D3257" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:4">
+      <c r="A3258" s="1">
+        <v>3256</v>
+      </c>
+      <c r="B3258">
+        <v>3403</v>
+      </c>
+      <c r="C3258">
+        <v>4.45</v>
+      </c>
+      <c r="D3258" s="2">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:4">
+      <c r="A3259" s="1">
+        <v>3257</v>
+      </c>
+      <c r="B3259">
+        <v>3404</v>
+      </c>
+      <c r="C3259">
+        <v>4.59</v>
+      </c>
+      <c r="D3259" s="2">
+        <v>44790</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3259"/>
+  <dimension ref="A1:D3260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46013,6 +46013,20 @@
         <v>44790</v>
       </c>
     </row>
+    <row r="3260" spans="1:4">
+      <c r="A3260" s="1">
+        <v>3258</v>
+      </c>
+      <c r="B3260">
+        <v>3405</v>
+      </c>
+      <c r="C3260">
+        <v>4.55</v>
+      </c>
+      <c r="D3260" s="2">
+        <v>44791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3260"/>
+  <dimension ref="A1:D3261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46027,6 +46027,20 @@
         <v>44791</v>
       </c>
     </row>
+    <row r="3261" spans="1:4">
+      <c r="A3261" s="1">
+        <v>3259</v>
+      </c>
+      <c r="B3261">
+        <v>3406</v>
+      </c>
+      <c r="C3261">
+        <v>4.68</v>
+      </c>
+      <c r="D3261" s="2">
+        <v>44792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3261"/>
+  <dimension ref="A1:D3263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46041,6 +46041,34 @@
         <v>44792</v>
       </c>
     </row>
+    <row r="3262" spans="1:4">
+      <c r="A3262" s="1">
+        <v>3260</v>
+      </c>
+      <c r="B3262">
+        <v>3407</v>
+      </c>
+      <c r="C3262">
+        <v>4.8</v>
+      </c>
+      <c r="D3262" s="2">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:4">
+      <c r="A3263" s="1">
+        <v>3261</v>
+      </c>
+      <c r="B3263">
+        <v>3408</v>
+      </c>
+      <c r="C3263">
+        <v>4.75</v>
+      </c>
+      <c r="D3263" s="2">
+        <v>44796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3263"/>
+  <dimension ref="A1:D3264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46069,6 +46069,20 @@
         <v>44796</v>
       </c>
     </row>
+    <row r="3264" spans="1:4">
+      <c r="A3264" s="1">
+        <v>3262</v>
+      </c>
+      <c r="B3264">
+        <v>3409</v>
+      </c>
+      <c r="C3264">
+        <v>4.72</v>
+      </c>
+      <c r="D3264" s="2">
+        <v>44797</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3264"/>
+  <dimension ref="A1:D3266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46083,6 +46083,34 @@
         <v>44797</v>
       </c>
     </row>
+    <row r="3265" spans="1:4">
+      <c r="A3265" s="1">
+        <v>3263</v>
+      </c>
+      <c r="B3265">
+        <v>3410</v>
+      </c>
+      <c r="C3265">
+        <v>4.66</v>
+      </c>
+      <c r="D3265" s="2">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:4">
+      <c r="A3266" s="1">
+        <v>3264</v>
+      </c>
+      <c r="B3266">
+        <v>3411</v>
+      </c>
+      <c r="C3266">
+        <v>4.68</v>
+      </c>
+      <c r="D3266" s="2">
+        <v>44799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3266"/>
+  <dimension ref="A1:D3268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46111,6 +46111,34 @@
         <v>44799</v>
       </c>
     </row>
+    <row r="3267" spans="1:4">
+      <c r="A3267" s="1">
+        <v>3265</v>
+      </c>
+      <c r="B3267">
+        <v>3412</v>
+      </c>
+      <c r="C3267">
+        <v>4.8</v>
+      </c>
+      <c r="D3267" s="2">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:4">
+      <c r="A3268" s="1">
+        <v>3266</v>
+      </c>
+      <c r="B3268">
+        <v>3414</v>
+      </c>
+      <c r="C3268">
+        <v>4.88</v>
+      </c>
+      <c r="D3268" s="2">
+        <v>44804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3268"/>
+  <dimension ref="A1:D3270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46139,6 +46139,34 @@
         <v>44804</v>
       </c>
     </row>
+    <row r="3269" spans="1:4">
+      <c r="A3269" s="1">
+        <v>3267</v>
+      </c>
+      <c r="B3269">
+        <v>3415</v>
+      </c>
+      <c r="C3269">
+        <v>5</v>
+      </c>
+      <c r="D3269" s="2">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:4">
+      <c r="A3270" s="1">
+        <v>3268</v>
+      </c>
+      <c r="B3270">
+        <v>3416</v>
+      </c>
+      <c r="C3270">
+        <v>4.95</v>
+      </c>
+      <c r="D3270" s="2">
+        <v>44806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3270"/>
+  <dimension ref="A1:D3272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46167,6 +46167,34 @@
         <v>44806</v>
       </c>
     </row>
+    <row r="3271" spans="1:4">
+      <c r="A3271" s="1">
+        <v>3269</v>
+      </c>
+      <c r="B3271">
+        <v>3417</v>
+      </c>
+      <c r="C3271">
+        <v>4.95</v>
+      </c>
+      <c r="D3271" s="2">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:4">
+      <c r="A3272" s="1">
+        <v>3270</v>
+      </c>
+      <c r="B3272">
+        <v>3418</v>
+      </c>
+      <c r="C3272">
+        <v>5.04</v>
+      </c>
+      <c r="D3272" s="2">
+        <v>44810</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3272"/>
+  <dimension ref="A1:D3274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46189,10 +46189,38 @@
         <v>3418</v>
       </c>
       <c r="C3272">
-        <v>5.04</v>
+        <v>5.12</v>
       </c>
       <c r="D3272" s="2">
         <v>44810</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:4">
+      <c r="A3273" s="1">
+        <v>3271</v>
+      </c>
+      <c r="B3273">
+        <v>3419</v>
+      </c>
+      <c r="C3273">
+        <v>5.02</v>
+      </c>
+      <c r="D3273" s="2">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:4">
+      <c r="A3274" s="1">
+        <v>3272</v>
+      </c>
+      <c r="B3274">
+        <v>3420</v>
+      </c>
+      <c r="C3274">
+        <v>4.96</v>
+      </c>
+      <c r="D3274" s="2">
+        <v>44812</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3274"/>
+  <dimension ref="A1:D3278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46217,10 +46217,66 @@
         <v>3420</v>
       </c>
       <c r="C3274">
-        <v>4.96</v>
+        <v>4.97</v>
       </c>
       <c r="D3274" s="2">
         <v>44812</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:4">
+      <c r="A3275" s="1">
+        <v>3273</v>
+      </c>
+      <c r="B3275">
+        <v>3421</v>
+      </c>
+      <c r="C3275">
+        <v>4.88</v>
+      </c>
+      <c r="D3275" s="2">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:4">
+      <c r="A3276" s="1">
+        <v>3274</v>
+      </c>
+      <c r="B3276">
+        <v>3422</v>
+      </c>
+      <c r="C3276">
+        <v>4.88</v>
+      </c>
+      <c r="D3276" s="2">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:4">
+      <c r="A3277" s="1">
+        <v>3275</v>
+      </c>
+      <c r="B3277">
+        <v>3423</v>
+      </c>
+      <c r="C3277">
+        <v>4.98</v>
+      </c>
+      <c r="D3277" s="2">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:4">
+      <c r="A3278" s="1">
+        <v>3276</v>
+      </c>
+      <c r="B3278">
+        <v>3424</v>
+      </c>
+      <c r="C3278">
+        <v>5.15</v>
+      </c>
+      <c r="D3278" s="2">
+        <v>44818</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3278"/>
+  <dimension ref="A1:D3280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46279,6 +46279,34 @@
         <v>44818</v>
       </c>
     </row>
+    <row r="3279" spans="1:4">
+      <c r="A3279" s="1">
+        <v>3277</v>
+      </c>
+      <c r="B3279">
+        <v>3425</v>
+      </c>
+      <c r="C3279">
+        <v>5.17</v>
+      </c>
+      <c r="D3279" s="2">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:4">
+      <c r="A3280" s="1">
+        <v>3278</v>
+      </c>
+      <c r="B3280">
+        <v>3426</v>
+      </c>
+      <c r="C3280">
+        <v>5.28</v>
+      </c>
+      <c r="D3280" s="2">
+        <v>44820</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3280"/>
+  <dimension ref="A1:D3282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46301,10 +46301,38 @@
         <v>3426</v>
       </c>
       <c r="C3280">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="D3280" s="2">
         <v>44820</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:4">
+      <c r="A3281" s="1">
+        <v>3279</v>
+      </c>
+      <c r="B3281">
+        <v>3427</v>
+      </c>
+      <c r="C3281">
+        <v>5.3</v>
+      </c>
+      <c r="D3281" s="2">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:4">
+      <c r="A3282" s="1">
+        <v>3280</v>
+      </c>
+      <c r="B3282">
+        <v>3428</v>
+      </c>
+      <c r="C3282">
+        <v>5.37</v>
+      </c>
+      <c r="D3282" s="2">
+        <v>44824</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3282"/>
+  <dimension ref="A1:D3284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46335,6 +46335,34 @@
         <v>44824</v>
       </c>
     </row>
+    <row r="3283" spans="1:4">
+      <c r="A3283" s="1">
+        <v>3281</v>
+      </c>
+      <c r="B3283">
+        <v>3429</v>
+      </c>
+      <c r="C3283">
+        <v>5.22</v>
+      </c>
+      <c r="D3283" s="2">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:4">
+      <c r="A3284" s="1">
+        <v>3282</v>
+      </c>
+      <c r="B3284">
+        <v>3430</v>
+      </c>
+      <c r="C3284">
+        <v>5.34</v>
+      </c>
+      <c r="D3284" s="2">
+        <v>44826</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3284"/>
+  <dimension ref="A1:D3286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46363,6 +46363,34 @@
         <v>44826</v>
       </c>
     </row>
+    <row r="3285" spans="1:4">
+      <c r="A3285" s="1">
+        <v>3283</v>
+      </c>
+      <c r="B3285">
+        <v>3431</v>
+      </c>
+      <c r="C3285">
+        <v>5.45</v>
+      </c>
+      <c r="D3285" s="2">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:4">
+      <c r="A3286" s="1">
+        <v>3284</v>
+      </c>
+      <c r="B3286">
+        <v>3432</v>
+      </c>
+      <c r="C3286">
+        <v>5.72</v>
+      </c>
+      <c r="D3286" s="2">
+        <v>44830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3286"/>
+  <dimension ref="A1:D3288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46391,6 +46391,34 @@
         <v>44830</v>
       </c>
     </row>
+    <row r="3287" spans="1:4">
+      <c r="A3287" s="1">
+        <v>3285</v>
+      </c>
+      <c r="B3287">
+        <v>3433</v>
+      </c>
+      <c r="C3287">
+        <v>5.9</v>
+      </c>
+      <c r="D3287" s="2">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:4">
+      <c r="A3288" s="1">
+        <v>3286</v>
+      </c>
+      <c r="B3288">
+        <v>3434</v>
+      </c>
+      <c r="C3288">
+        <v>5.65</v>
+      </c>
+      <c r="D3288" s="2">
+        <v>44832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3288"/>
+  <dimension ref="A1:D3289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46419,6 +46419,20 @@
         <v>44832</v>
       </c>
     </row>
+    <row r="3289" spans="1:4">
+      <c r="A3289" s="1">
+        <v>3287</v>
+      </c>
+      <c r="B3289">
+        <v>3435</v>
+      </c>
+      <c r="C3289">
+        <v>5.78</v>
+      </c>
+      <c r="D3289" s="2">
+        <v>44833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3289"/>
+  <dimension ref="A1:D3292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46433,6 +46433,48 @@
         <v>44833</v>
       </c>
     </row>
+    <row r="3290" spans="1:4">
+      <c r="A3290" s="1">
+        <v>3288</v>
+      </c>
+      <c r="B3290">
+        <v>3436</v>
+      </c>
+      <c r="C3290">
+        <v>5.79</v>
+      </c>
+      <c r="D3290" s="2">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:4">
+      <c r="A3291" s="1">
+        <v>3289</v>
+      </c>
+      <c r="B3291">
+        <v>3437</v>
+      </c>
+      <c r="C3291">
+        <v>5.63</v>
+      </c>
+      <c r="D3291" s="2">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:4">
+      <c r="A3292" s="1">
+        <v>3290</v>
+      </c>
+      <c r="B3292">
+        <v>3438</v>
+      </c>
+      <c r="C3292">
+        <v>5.48</v>
+      </c>
+      <c r="D3292" s="2">
+        <v>44838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3292"/>
+  <dimension ref="A1:D3293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46475,6 +46475,20 @@
         <v>44838</v>
       </c>
     </row>
+    <row r="3293" spans="1:4">
+      <c r="A3293" s="1">
+        <v>3291</v>
+      </c>
+      <c r="B3293">
+        <v>3440</v>
+      </c>
+      <c r="C3293">
+        <v>5.73</v>
+      </c>
+      <c r="D3293" s="2">
+        <v>44840</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3293"/>
+  <dimension ref="A1:D3301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46489,6 +46489,118 @@
         <v>44840</v>
       </c>
     </row>
+    <row r="3294" spans="1:4">
+      <c r="A3294" s="1">
+        <v>3292</v>
+      </c>
+      <c r="B3294">
+        <v>3441</v>
+      </c>
+      <c r="C3294">
+        <v>5.93</v>
+      </c>
+      <c r="D3294" s="2">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:4">
+      <c r="A3295" s="1">
+        <v>3293</v>
+      </c>
+      <c r="B3295">
+        <v>3442</v>
+      </c>
+      <c r="C3295">
+        <v>5.93</v>
+      </c>
+      <c r="D3295" s="2">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:4">
+      <c r="A3296" s="1">
+        <v>3294</v>
+      </c>
+      <c r="B3296">
+        <v>3443</v>
+      </c>
+      <c r="C3296">
+        <v>6.05</v>
+      </c>
+      <c r="D3296" s="2">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:4">
+      <c r="A3297" s="1">
+        <v>3295</v>
+      </c>
+      <c r="B3297">
+        <v>3444</v>
+      </c>
+      <c r="C3297">
+        <v>6.06</v>
+      </c>
+      <c r="D3297" s="2">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:4">
+      <c r="A3298" s="1">
+        <v>3296</v>
+      </c>
+      <c r="B3298">
+        <v>3445</v>
+      </c>
+      <c r="C3298">
+        <v>6.2</v>
+      </c>
+      <c r="D3298" s="2">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:4">
+      <c r="A3299" s="1">
+        <v>3297</v>
+      </c>
+      <c r="B3299">
+        <v>3446</v>
+      </c>
+      <c r="C3299">
+        <v>6.24</v>
+      </c>
+      <c r="D3299" s="2">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:4">
+      <c r="A3300" s="1">
+        <v>3298</v>
+      </c>
+      <c r="B3300">
+        <v>3447</v>
+      </c>
+      <c r="C3300">
+        <v>6.19</v>
+      </c>
+      <c r="D3300" s="2">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:4">
+      <c r="A3301" s="1">
+        <v>3299</v>
+      </c>
+      <c r="B3301">
+        <v>3448</v>
+      </c>
+      <c r="C3301">
+        <v>6.14</v>
+      </c>
+      <c r="D3301" s="2">
+        <v>44852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3301"/>
+  <dimension ref="A1:D3303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46601,6 +46601,34 @@
         <v>44852</v>
       </c>
     </row>
+    <row r="3302" spans="1:4">
+      <c r="A3302" s="1">
+        <v>3300</v>
+      </c>
+      <c r="B3302">
+        <v>3449</v>
+      </c>
+      <c r="C3302">
+        <v>6.28</v>
+      </c>
+      <c r="D3302" s="2">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:4">
+      <c r="A3303" s="1">
+        <v>3301</v>
+      </c>
+      <c r="B3303">
+        <v>3450</v>
+      </c>
+      <c r="C3303">
+        <v>6.38</v>
+      </c>
+      <c r="D3303" s="2">
+        <v>44854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3303"/>
+  <dimension ref="A1:D3306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46629,6 +46629,48 @@
         <v>44854</v>
       </c>
     </row>
+    <row r="3304" spans="1:4">
+      <c r="A3304" s="1">
+        <v>3302</v>
+      </c>
+      <c r="B3304">
+        <v>3451</v>
+      </c>
+      <c r="C3304">
+        <v>6.41</v>
+      </c>
+      <c r="D3304" s="2">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:4">
+      <c r="A3305" s="1">
+        <v>3303</v>
+      </c>
+      <c r="B3305">
+        <v>3452</v>
+      </c>
+      <c r="C3305">
+        <v>6.34</v>
+      </c>
+      <c r="D3305" s="2">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:4">
+      <c r="A3306" s="1">
+        <v>3304</v>
+      </c>
+      <c r="B3306">
+        <v>3453</v>
+      </c>
+      <c r="C3306">
+        <v>6.15</v>
+      </c>
+      <c r="D3306" s="2">
+        <v>44859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3306"/>
+  <dimension ref="A1:D3307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46671,6 +46671,20 @@
         <v>44859</v>
       </c>
     </row>
+    <row r="3307" spans="1:4">
+      <c r="A3307" s="1">
+        <v>3305</v>
+      </c>
+      <c r="B3307">
+        <v>3454</v>
+      </c>
+      <c r="C3307">
+        <v>6</v>
+      </c>
+      <c r="D3307" s="2">
+        <v>44860</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3307"/>
+  <dimension ref="A1:D3309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46685,6 +46685,34 @@
         <v>44860</v>
       </c>
     </row>
+    <row r="3308" spans="1:4">
+      <c r="A3308" s="1">
+        <v>3306</v>
+      </c>
+      <c r="B3308">
+        <v>3455</v>
+      </c>
+      <c r="C3308">
+        <v>5.91</v>
+      </c>
+      <c r="D3308" s="2">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:4">
+      <c r="A3309" s="1">
+        <v>3307</v>
+      </c>
+      <c r="B3309">
+        <v>3456</v>
+      </c>
+      <c r="C3309">
+        <v>5.91</v>
+      </c>
+      <c r="D3309" s="2">
+        <v>44862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3309"/>
+  <dimension ref="A1:D3310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46713,6 +46713,20 @@
         <v>44862</v>
       </c>
     </row>
+    <row r="3310" spans="1:4">
+      <c r="A3310" s="1">
+        <v>3308</v>
+      </c>
+      <c r="B3310">
+        <v>3457</v>
+      </c>
+      <c r="C3310">
+        <v>5.99</v>
+      </c>
+      <c r="D3310" s="2">
+        <v>44865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3310"/>
+  <dimension ref="A1:D3313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46727,6 +46727,48 @@
         <v>44865</v>
       </c>
     </row>
+    <row r="3311" spans="1:4">
+      <c r="A3311" s="1">
+        <v>3309</v>
+      </c>
+      <c r="B3311">
+        <v>3459</v>
+      </c>
+      <c r="C3311">
+        <v>5.93</v>
+      </c>
+      <c r="D3311" s="2">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:4">
+      <c r="A3312" s="1">
+        <v>3310</v>
+      </c>
+      <c r="B3312">
+        <v>3460</v>
+      </c>
+      <c r="C3312">
+        <v>6.02</v>
+      </c>
+      <c r="D3312" s="2">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:4">
+      <c r="A3313" s="1">
+        <v>3311</v>
+      </c>
+      <c r="B3313">
+        <v>3461</v>
+      </c>
+      <c r="C3313">
+        <v>5.99</v>
+      </c>
+      <c r="D3313" s="2">
+        <v>44869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3313"/>
+  <dimension ref="A1:D3315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46769,6 +46769,34 @@
         <v>44869</v>
       </c>
     </row>
+    <row r="3314" spans="1:4">
+      <c r="A3314" s="1">
+        <v>3312</v>
+      </c>
+      <c r="B3314">
+        <v>3462</v>
+      </c>
+      <c r="C3314">
+        <v>5.92</v>
+      </c>
+      <c r="D3314" s="2">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:4">
+      <c r="A3315" s="1">
+        <v>3313</v>
+      </c>
+      <c r="B3315">
+        <v>3463</v>
+      </c>
+      <c r="C3315">
+        <v>5.86</v>
+      </c>
+      <c r="D3315" s="2">
+        <v>44873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3315"/>
+  <dimension ref="A1:D3316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46791,10 +46791,24 @@
         <v>3463</v>
       </c>
       <c r="C3315">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="D3315" s="2">
         <v>44873</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:4">
+      <c r="A3316" s="1">
+        <v>3314</v>
+      </c>
+      <c r="B3316">
+        <v>3464</v>
+      </c>
+      <c r="C3316">
+        <v>5.86</v>
+      </c>
+      <c r="D3316" s="2">
+        <v>44874</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3316"/>
+  <dimension ref="A1:D3320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46811,6 +46811,62 @@
         <v>44874</v>
       </c>
     </row>
+    <row r="3317" spans="1:4">
+      <c r="A3317" s="1">
+        <v>3315</v>
+      </c>
+      <c r="B3317">
+        <v>3465</v>
+      </c>
+      <c r="C3317">
+        <v>5.5</v>
+      </c>
+      <c r="D3317" s="2">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:4">
+      <c r="A3318" s="1">
+        <v>3316</v>
+      </c>
+      <c r="B3318">
+        <v>3466</v>
+      </c>
+      <c r="C3318">
+        <v>5.5</v>
+      </c>
+      <c r="D3318" s="2">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:4">
+      <c r="A3319" s="1">
+        <v>3317</v>
+      </c>
+      <c r="B3319">
+        <v>3467</v>
+      </c>
+      <c r="C3319">
+        <v>5.45</v>
+      </c>
+      <c r="D3319" s="2">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:4">
+      <c r="A3320" s="1">
+        <v>3318</v>
+      </c>
+      <c r="B3320">
+        <v>3468</v>
+      </c>
+      <c r="C3320">
+        <v>5.33</v>
+      </c>
+      <c r="D3320" s="2">
+        <v>44880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3320"/>
+  <dimension ref="A1:D3321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46867,6 +46867,20 @@
         <v>44880</v>
       </c>
     </row>
+    <row r="3321" spans="1:4">
+      <c r="A3321" s="1">
+        <v>3319</v>
+      </c>
+      <c r="B3321">
+        <v>3469</v>
+      </c>
+      <c r="C3321">
+        <v>5.26</v>
+      </c>
+      <c r="D3321" s="2">
+        <v>44881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3321"/>
+  <dimension ref="A1:D3322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46881,6 +46881,20 @@
         <v>44881</v>
       </c>
     </row>
+    <row r="3322" spans="1:4">
+      <c r="A3322" s="1">
+        <v>3320</v>
+      </c>
+      <c r="B3322">
+        <v>3470</v>
+      </c>
+      <c r="C3322">
+        <v>5.38</v>
+      </c>
+      <c r="D3322" s="2">
+        <v>44882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3322"/>
+  <dimension ref="A1:D3324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46889,10 +46889,38 @@
         <v>3470</v>
       </c>
       <c r="C3322">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="D3322" s="2">
         <v>44882</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:4">
+      <c r="A3323" s="1">
+        <v>3321</v>
+      </c>
+      <c r="B3323">
+        <v>3471</v>
+      </c>
+      <c r="C3323">
+        <v>5.4</v>
+      </c>
+      <c r="D3323" s="2">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:4">
+      <c r="A3324" s="1">
+        <v>3322</v>
+      </c>
+      <c r="B3324">
+        <v>3472</v>
+      </c>
+      <c r="C3324">
+        <v>5.36</v>
+      </c>
+      <c r="D3324" s="2">
+        <v>44886</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3324"/>
+  <dimension ref="A1:D3325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46917,10 +46917,24 @@
         <v>3472</v>
       </c>
       <c r="C3324">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="D3324" s="2">
         <v>44886</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:4">
+      <c r="A3325" s="1">
+        <v>3323</v>
+      </c>
+      <c r="B3325">
+        <v>3473</v>
+      </c>
+      <c r="C3325">
+        <v>5.3</v>
+      </c>
+      <c r="D3325" s="2">
+        <v>44887</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3325"/>
+  <dimension ref="A1:D3326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46937,6 +46937,20 @@
         <v>44887</v>
       </c>
     </row>
+    <row r="3326" spans="1:4">
+      <c r="A3326" s="1">
+        <v>3324</v>
+      </c>
+      <c r="B3326">
+        <v>3474</v>
+      </c>
+      <c r="C3326">
+        <v>5.2</v>
+      </c>
+      <c r="D3326" s="2">
+        <v>44888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3326"/>
+  <dimension ref="A1:D3328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46951,6 +46951,34 @@
         <v>44888</v>
       </c>
     </row>
+    <row r="3327" spans="1:4">
+      <c r="A3327" s="1">
+        <v>3325</v>
+      </c>
+      <c r="B3327">
+        <v>3475</v>
+      </c>
+      <c r="C3327">
+        <v>5.2</v>
+      </c>
+      <c r="D3327" s="2">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:4">
+      <c r="A3328" s="1">
+        <v>3326</v>
+      </c>
+      <c r="B3328">
+        <v>3476</v>
+      </c>
+      <c r="C3328">
+        <v>5.19</v>
+      </c>
+      <c r="D3328" s="2">
+        <v>44890</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3328"/>
+  <dimension ref="A1:D3330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46979,6 +46979,34 @@
         <v>44890</v>
       </c>
     </row>
+    <row r="3329" spans="1:4">
+      <c r="A3329" s="1">
+        <v>3327</v>
+      </c>
+      <c r="B3329">
+        <v>3477</v>
+      </c>
+      <c r="C3329">
+        <v>5.19</v>
+      </c>
+      <c r="D3329" s="2">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:4">
+      <c r="A3330" s="1">
+        <v>3328</v>
+      </c>
+      <c r="B3330">
+        <v>3478</v>
+      </c>
+      <c r="C3330">
+        <v>5.19</v>
+      </c>
+      <c r="D3330" s="2">
+        <v>44894</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3330"/>
+  <dimension ref="A1:D3331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47007,6 +47007,20 @@
         <v>44894</v>
       </c>
     </row>
+    <row r="3331" spans="1:4">
+      <c r="A3331" s="1">
+        <v>3329</v>
+      </c>
+      <c r="B3331">
+        <v>3479</v>
+      </c>
+      <c r="C3331">
+        <v>5.21</v>
+      </c>
+      <c r="D3331" s="2">
+        <v>44895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3331"/>
+  <dimension ref="A1:D3333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47015,10 +47015,38 @@
         <v>3479</v>
       </c>
       <c r="C3331">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="D3331" s="2">
         <v>44895</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:4">
+      <c r="A3332" s="1">
+        <v>3330</v>
+      </c>
+      <c r="B3332">
+        <v>3480</v>
+      </c>
+      <c r="C3332">
+        <v>4.93</v>
+      </c>
+      <c r="D3332" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:4">
+      <c r="A3333" s="1">
+        <v>3331</v>
+      </c>
+      <c r="B3333">
+        <v>3481</v>
+      </c>
+      <c r="C3333">
+        <v>4.9</v>
+      </c>
+      <c r="D3333" s="2">
+        <v>44897</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3333"/>
+  <dimension ref="A1:D3334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47049,6 +47049,20 @@
         <v>44897</v>
       </c>
     </row>
+    <row r="3334" spans="1:4">
+      <c r="A3334" s="1">
+        <v>3332</v>
+      </c>
+      <c r="B3334">
+        <v>3482</v>
+      </c>
+      <c r="C3334">
+        <v>4.94</v>
+      </c>
+      <c r="D3334" s="2">
+        <v>44900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3334"/>
+  <dimension ref="A1:D3335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47057,10 +47057,24 @@
         <v>3482</v>
       </c>
       <c r="C3334">
-        <v>4.94</v>
+        <v>4.98</v>
       </c>
       <c r="D3334" s="2">
         <v>44900</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:4">
+      <c r="A3335" s="1">
+        <v>3333</v>
+      </c>
+      <c r="B3335">
+        <v>3483</v>
+      </c>
+      <c r="C3335">
+        <v>5.04</v>
+      </c>
+      <c r="D3335" s="2">
+        <v>44901</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3335"/>
+  <dimension ref="A1:D3336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47077,6 +47077,20 @@
         <v>44901</v>
       </c>
     </row>
+    <row r="3336" spans="1:4">
+      <c r="A3336" s="1">
+        <v>3334</v>
+      </c>
+      <c r="B3336">
+        <v>3484</v>
+      </c>
+      <c r="C3336">
+        <v>4.94</v>
+      </c>
+      <c r="D3336" s="2">
+        <v>44902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3336"/>
+  <dimension ref="A1:D3338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47091,6 +47091,34 @@
         <v>44902</v>
       </c>
     </row>
+    <row r="3337" spans="1:4">
+      <c r="A3337" s="1">
+        <v>3335</v>
+      </c>
+      <c r="B3337">
+        <v>3488</v>
+      </c>
+      <c r="C3337">
+        <v>4.88</v>
+      </c>
+      <c r="D3337" s="2">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:4">
+      <c r="A3338" s="1">
+        <v>3336</v>
+      </c>
+      <c r="B3338">
+        <v>3489</v>
+      </c>
+      <c r="C3338">
+        <v>4.87</v>
+      </c>
+      <c r="D3338" s="2">
+        <v>44909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3338"/>
+  <dimension ref="A1:D3340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47113,10 +47113,38 @@
         <v>3489</v>
       </c>
       <c r="C3338">
-        <v>4.87</v>
+        <v>5.03</v>
       </c>
       <c r="D3338" s="2">
         <v>44909</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:4">
+      <c r="A3339" s="1">
+        <v>3337</v>
+      </c>
+      <c r="B3339">
+        <v>3490</v>
+      </c>
+      <c r="C3339">
+        <v>5.08</v>
+      </c>
+      <c r="D3339" s="2">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:4">
+      <c r="A3340" s="1">
+        <v>3338</v>
+      </c>
+      <c r="B3340">
+        <v>3491</v>
+      </c>
+      <c r="C3340">
+        <v>5.21</v>
+      </c>
+      <c r="D3340" s="2">
+        <v>44911</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3340"/>
+  <dimension ref="A1:D3342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47147,6 +47147,34 @@
         <v>44911</v>
       </c>
     </row>
+    <row r="3341" spans="1:4">
+      <c r="A3341" s="1">
+        <v>3339</v>
+      </c>
+      <c r="B3341">
+        <v>3492</v>
+      </c>
+      <c r="C3341">
+        <v>5.3</v>
+      </c>
+      <c r="D3341" s="2">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:4">
+      <c r="A3342" s="1">
+        <v>3340</v>
+      </c>
+      <c r="B3342">
+        <v>3493</v>
+      </c>
+      <c r="C3342">
+        <v>5.41</v>
+      </c>
+      <c r="D3342" s="2">
+        <v>44915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3342"/>
+  <dimension ref="A1:D3343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47169,10 +47169,24 @@
         <v>3493</v>
       </c>
       <c r="C3342">
-        <v>5.41</v>
+        <v>5.36</v>
       </c>
       <c r="D3342" s="2">
         <v>44915</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:4">
+      <c r="A3343" s="1">
+        <v>3341</v>
+      </c>
+      <c r="B3343">
+        <v>3494</v>
+      </c>
+      <c r="C3343">
+        <v>5.25</v>
+      </c>
+      <c r="D3343" s="2">
+        <v>44916</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3343"/>
+  <dimension ref="A1:D3345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47189,6 +47189,34 @@
         <v>44916</v>
       </c>
     </row>
+    <row r="3344" spans="1:4">
+      <c r="A3344" s="1">
+        <v>3342</v>
+      </c>
+      <c r="B3344">
+        <v>3495</v>
+      </c>
+      <c r="C3344">
+        <v>5.28</v>
+      </c>
+      <c r="D3344" s="2">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:4">
+      <c r="A3345" s="1">
+        <v>3343</v>
+      </c>
+      <c r="B3345">
+        <v>3496</v>
+      </c>
+      <c r="C3345">
+        <v>5.31</v>
+      </c>
+      <c r="D3345" s="2">
+        <v>44918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3345"/>
+  <dimension ref="A1:D3349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47217,6 +47217,62 @@
         <v>44918</v>
       </c>
     </row>
+    <row r="3346" spans="1:4">
+      <c r="A3346" s="1">
+        <v>3344</v>
+      </c>
+      <c r="B3346">
+        <v>3497</v>
+      </c>
+      <c r="C3346">
+        <v>5.31</v>
+      </c>
+      <c r="D3346" s="2">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:4">
+      <c r="A3347" s="1">
+        <v>3345</v>
+      </c>
+      <c r="B3347">
+        <v>3498</v>
+      </c>
+      <c r="C3347">
+        <v>5.39</v>
+      </c>
+      <c r="D3347" s="2">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:4">
+      <c r="A3348" s="1">
+        <v>3346</v>
+      </c>
+      <c r="B3348">
+        <v>3499</v>
+      </c>
+      <c r="C3348">
+        <v>5.41</v>
+      </c>
+      <c r="D3348" s="2">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:4">
+      <c r="A3349" s="1">
+        <v>3347</v>
+      </c>
+      <c r="B3349">
+        <v>3500</v>
+      </c>
+      <c r="C3349">
+        <v>5.4</v>
+      </c>
+      <c r="D3349" s="2">
+        <v>44924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3349"/>
+  <dimension ref="A1:D3350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47273,6 +47273,20 @@
         <v>44924</v>
       </c>
     </row>
+    <row r="3350" spans="1:4">
+      <c r="A3350" s="1">
+        <v>3348</v>
+      </c>
+      <c r="B3350">
+        <v>3501</v>
+      </c>
+      <c r="C3350">
+        <v>5.45</v>
+      </c>
+      <c r="D3350" s="2">
+        <v>44925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3350"/>
+  <dimension ref="A1:D3351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47287,6 +47287,20 @@
         <v>44925</v>
       </c>
     </row>
+    <row r="3351" spans="1:4">
+      <c r="A3351" s="1">
+        <v>3349</v>
+      </c>
+      <c r="B3351">
+        <v>3503</v>
+      </c>
+      <c r="C3351">
+        <v>5.4</v>
+      </c>
+      <c r="D3351" s="2">
+        <v>44929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_usd_bond.xlsx
+++ b/mercados/pen_10y_usd_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3351"/>
+  <dimension ref="A1:D3472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47295,10 +47295,1704 @@
         <v>3503</v>
       </c>
       <c r="C3351">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="D3351" s="2">
         <v>44929</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:4">
+      <c r="A3352" s="1">
+        <v>3350</v>
+      </c>
+      <c r="B3352">
+        <v>3504</v>
+      </c>
+      <c r="C3352">
+        <v>5.4</v>
+      </c>
+      <c r="D3352" s="2">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:4">
+      <c r="A3353" s="1">
+        <v>3351</v>
+      </c>
+      <c r="B3353">
+        <v>3505</v>
+      </c>
+      <c r="C3353">
+        <v>5.51</v>
+      </c>
+      <c r="D3353" s="2">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:4">
+      <c r="A3354" s="1">
+        <v>3352</v>
+      </c>
+      <c r="B3354">
+        <v>3506</v>
+      </c>
+      <c r="C3354">
+        <v>5.36</v>
+      </c>
+      <c r="D3354" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:4">
+      <c r="A3355" s="1">
+        <v>3353</v>
+      </c>
+      <c r="B3355">
+        <v>3507</v>
+      </c>
+      <c r="C3355">
+        <v>5.27</v>
+      </c>
+      <c r="D3355" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:4">
+      <c r="A3356" s="1">
+        <v>3354</v>
+      </c>
+      <c r="B3356">
+        <v>3508</v>
+      </c>
+      <c r="C3356">
+        <v>5.4</v>
+      </c>
+      <c r="D3356" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:4">
+      <c r="A3357" s="1">
+        <v>3355</v>
+      </c>
+      <c r="B3357">
+        <v>3509</v>
+      </c>
+      <c r="C3357">
+        <v>5.25</v>
+      </c>
+      <c r="D3357" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:4">
+      <c r="A3358" s="1">
+        <v>3356</v>
+      </c>
+      <c r="B3358">
+        <v>3510</v>
+      </c>
+      <c r="C3358">
+        <v>5.05</v>
+      </c>
+      <c r="D3358" s="2">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:4">
+      <c r="A3359" s="1">
+        <v>3357</v>
+      </c>
+      <c r="B3359">
+        <v>3511</v>
+      </c>
+      <c r="C3359">
+        <v>5.11</v>
+      </c>
+      <c r="D3359" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:4">
+      <c r="A3360" s="1">
+        <v>3358</v>
+      </c>
+      <c r="B3360">
+        <v>3512</v>
+      </c>
+      <c r="C3360">
+        <v>5.11</v>
+      </c>
+      <c r="D3360" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:4">
+      <c r="A3361" s="1">
+        <v>3359</v>
+      </c>
+      <c r="B3361">
+        <v>3513</v>
+      </c>
+      <c r="C3361">
+        <v>5.17</v>
+      </c>
+      <c r="D3361" s="2">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:4">
+      <c r="A3362" s="1">
+        <v>3360</v>
+      </c>
+      <c r="B3362">
+        <v>3514</v>
+      </c>
+      <c r="C3362">
+        <v>5.02</v>
+      </c>
+      <c r="D3362" s="2">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:4">
+      <c r="A3363" s="1">
+        <v>3361</v>
+      </c>
+      <c r="B3363">
+        <v>3515</v>
+      </c>
+      <c r="C3363">
+        <v>5.12</v>
+      </c>
+      <c r="D3363" s="2">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:4">
+      <c r="A3364" s="1">
+        <v>3362</v>
+      </c>
+      <c r="B3364">
+        <v>3516</v>
+      </c>
+      <c r="C3364">
+        <v>5.19</v>
+      </c>
+      <c r="D3364" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:4">
+      <c r="A3365" s="1">
+        <v>3363</v>
+      </c>
+      <c r="B3365">
+        <v>3517</v>
+      </c>
+      <c r="C3365">
+        <v>5.24</v>
+      </c>
+      <c r="D3365" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:4">
+      <c r="A3366" s="1">
+        <v>3364</v>
+      </c>
+      <c r="B3366">
+        <v>3518</v>
+      </c>
+      <c r="C3366">
+        <v>5.17</v>
+      </c>
+      <c r="D3366" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:4">
+      <c r="A3367" s="1">
+        <v>3365</v>
+      </c>
+      <c r="B3367">
+        <v>3522</v>
+      </c>
+      <c r="C3367">
+        <v>5.2</v>
+      </c>
+      <c r="D3367" s="2">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:4">
+      <c r="A3368" s="1">
+        <v>3366</v>
+      </c>
+      <c r="B3368">
+        <v>3523</v>
+      </c>
+      <c r="C3368">
+        <v>5.17</v>
+      </c>
+      <c r="D3368" s="2">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:4">
+      <c r="A3369" s="1">
+        <v>3367</v>
+      </c>
+      <c r="B3369">
+        <v>3524</v>
+      </c>
+      <c r="C3369">
+        <v>5.08</v>
+      </c>
+      <c r="D3369" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:4">
+      <c r="A3370" s="1">
+        <v>3368</v>
+      </c>
+      <c r="B3370">
+        <v>3525</v>
+      </c>
+      <c r="C3370">
+        <v>4.94</v>
+      </c>
+      <c r="D3370" s="2">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:4">
+      <c r="A3371" s="1">
+        <v>3369</v>
+      </c>
+      <c r="B3371">
+        <v>3526</v>
+      </c>
+      <c r="C3371">
+        <v>5.05</v>
+      </c>
+      <c r="D3371" s="2">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:4">
+      <c r="A3372" s="1">
+        <v>3370</v>
+      </c>
+      <c r="B3372">
+        <v>3527</v>
+      </c>
+      <c r="C3372">
+        <v>5.16</v>
+      </c>
+      <c r="D3372" s="2">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:4">
+      <c r="A3373" s="1">
+        <v>3371</v>
+      </c>
+      <c r="B3373">
+        <v>3528</v>
+      </c>
+      <c r="C3373">
+        <v>5.19</v>
+      </c>
+      <c r="D3373" s="2">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:4">
+      <c r="A3374" s="1">
+        <v>3372</v>
+      </c>
+      <c r="B3374">
+        <v>3529</v>
+      </c>
+      <c r="C3374">
+        <v>5.18</v>
+      </c>
+      <c r="D3374" s="2">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:4">
+      <c r="A3375" s="1">
+        <v>3373</v>
+      </c>
+      <c r="B3375">
+        <v>3530</v>
+      </c>
+      <c r="C3375">
+        <v>5.28</v>
+      </c>
+      <c r="D3375" s="2">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:4">
+      <c r="A3376" s="1">
+        <v>3374</v>
+      </c>
+      <c r="B3376">
+        <v>3531</v>
+      </c>
+      <c r="C3376">
+        <v>5.39</v>
+      </c>
+      <c r="D3376" s="2">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:4">
+      <c r="A3377" s="1">
+        <v>3375</v>
+      </c>
+      <c r="B3377">
+        <v>3534</v>
+      </c>
+      <c r="C3377">
+        <v>5.38</v>
+      </c>
+      <c r="D3377" s="2">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:4">
+      <c r="A3378" s="1">
+        <v>3376</v>
+      </c>
+      <c r="B3378">
+        <v>3535</v>
+      </c>
+      <c r="C3378">
+        <v>5.41</v>
+      </c>
+      <c r="D3378" s="2">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:4">
+      <c r="A3379" s="1">
+        <v>3377</v>
+      </c>
+      <c r="B3379">
+        <v>3536</v>
+      </c>
+      <c r="C3379">
+        <v>7.86</v>
+      </c>
+      <c r="D3379" s="2">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:4">
+      <c r="A3380" s="1">
+        <v>3378</v>
+      </c>
+      <c r="B3380">
+        <v>3538</v>
+      </c>
+      <c r="C3380">
+        <v>5.56</v>
+      </c>
+      <c r="D3380" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:4">
+      <c r="A3381" s="1">
+        <v>3379</v>
+      </c>
+      <c r="B3381">
+        <v>3539</v>
+      </c>
+      <c r="C3381">
+        <v>5.53</v>
+      </c>
+      <c r="D3381" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:4">
+      <c r="A3382" s="1">
+        <v>3380</v>
+      </c>
+      <c r="B3382">
+        <v>3540</v>
+      </c>
+      <c r="C3382">
+        <v>5.49</v>
+      </c>
+      <c r="D3382" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:4">
+      <c r="A3383" s="1">
+        <v>3381</v>
+      </c>
+      <c r="B3383">
+        <v>3541</v>
+      </c>
+      <c r="C3383">
+        <v>5.57</v>
+      </c>
+      <c r="D3383" s="2">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:4">
+      <c r="A3384" s="1">
+        <v>3382</v>
+      </c>
+      <c r="B3384">
+        <v>3542</v>
+      </c>
+      <c r="C3384">
+        <v>5.57</v>
+      </c>
+      <c r="D3384" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:4">
+      <c r="A3385" s="1">
+        <v>3383</v>
+      </c>
+      <c r="B3385">
+        <v>3543</v>
+      </c>
+      <c r="C3385">
+        <v>5.57</v>
+      </c>
+      <c r="D3385" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:4">
+      <c r="A3386" s="1">
+        <v>3384</v>
+      </c>
+      <c r="B3386">
+        <v>3544</v>
+      </c>
+      <c r="C3386">
+        <v>5.62</v>
+      </c>
+      <c r="D3386" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:4">
+      <c r="A3387" s="1">
+        <v>3385</v>
+      </c>
+      <c r="B3387">
+        <v>3545</v>
+      </c>
+      <c r="C3387">
+        <v>5.68</v>
+      </c>
+      <c r="D3387" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:4">
+      <c r="A3388" s="1">
+        <v>3386</v>
+      </c>
+      <c r="B3388">
+        <v>3546</v>
+      </c>
+      <c r="C3388">
+        <v>5.57</v>
+      </c>
+      <c r="D3388" s="2">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:4">
+      <c r="A3389" s="1">
+        <v>3387</v>
+      </c>
+      <c r="B3389">
+        <v>3547</v>
+      </c>
+      <c r="C3389">
+        <v>5.54</v>
+      </c>
+      <c r="D3389" s="2">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:4">
+      <c r="A3390" s="1">
+        <v>3388</v>
+      </c>
+      <c r="B3390">
+        <v>3548</v>
+      </c>
+      <c r="C3390">
+        <v>5.59</v>
+      </c>
+      <c r="D3390" s="2">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:4">
+      <c r="A3391" s="1">
+        <v>3389</v>
+      </c>
+      <c r="B3391">
+        <v>3549</v>
+      </c>
+      <c r="C3391">
+        <v>5.63</v>
+      </c>
+      <c r="D3391" s="2">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:4">
+      <c r="A3392" s="1">
+        <v>3390</v>
+      </c>
+      <c r="B3392">
+        <v>3550</v>
+      </c>
+      <c r="C3392">
+        <v>5.62</v>
+      </c>
+      <c r="D3392" s="2">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:4">
+      <c r="A3393" s="1">
+        <v>3391</v>
+      </c>
+      <c r="B3393">
+        <v>3551</v>
+      </c>
+      <c r="C3393">
+        <v>5.44</v>
+      </c>
+      <c r="D3393" s="2">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:4">
+      <c r="A3394" s="1">
+        <v>3392</v>
+      </c>
+      <c r="B3394">
+        <v>3552</v>
+      </c>
+      <c r="C3394">
+        <v>5.33</v>
+      </c>
+      <c r="D3394" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:4">
+      <c r="A3395" s="1">
+        <v>3393</v>
+      </c>
+      <c r="B3395">
+        <v>3553</v>
+      </c>
+      <c r="C3395">
+        <v>5.35</v>
+      </c>
+      <c r="D3395" s="2">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:4">
+      <c r="A3396" s="1">
+        <v>3394</v>
+      </c>
+      <c r="B3396">
+        <v>3554</v>
+      </c>
+      <c r="C3396">
+        <v>5.24</v>
+      </c>
+      <c r="D3396" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:4">
+      <c r="A3397" s="1">
+        <v>3395</v>
+      </c>
+      <c r="B3397">
+        <v>3555</v>
+      </c>
+      <c r="C3397">
+        <v>5.24</v>
+      </c>
+      <c r="D3397" s="2">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:4">
+      <c r="A3398" s="1">
+        <v>3396</v>
+      </c>
+      <c r="B3398">
+        <v>3556</v>
+      </c>
+      <c r="C3398">
+        <v>5.18</v>
+      </c>
+      <c r="D3398" s="2">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:4">
+      <c r="A3399" s="1">
+        <v>3397</v>
+      </c>
+      <c r="B3399">
+        <v>3557</v>
+      </c>
+      <c r="C3399">
+        <v>5.16</v>
+      </c>
+      <c r="D3399" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:4">
+      <c r="A3400" s="1">
+        <v>3398</v>
+      </c>
+      <c r="B3400">
+        <v>3558</v>
+      </c>
+      <c r="C3400">
+        <v>5.21</v>
+      </c>
+      <c r="D3400" s="2">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:4">
+      <c r="A3401" s="1">
+        <v>3399</v>
+      </c>
+      <c r="B3401">
+        <v>3559</v>
+      </c>
+      <c r="C3401">
+        <v>5.14</v>
+      </c>
+      <c r="D3401" s="2">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:4">
+      <c r="A3402" s="1">
+        <v>3400</v>
+      </c>
+      <c r="B3402">
+        <v>3560</v>
+      </c>
+      <c r="C3402">
+        <v>5.14</v>
+      </c>
+      <c r="D3402" s="2">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:4">
+      <c r="A3403" s="1">
+        <v>3401</v>
+      </c>
+      <c r="B3403">
+        <v>3561</v>
+      </c>
+      <c r="C3403">
+        <v>5.08</v>
+      </c>
+      <c r="D3403" s="2">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:4">
+      <c r="A3404" s="1">
+        <v>3402</v>
+      </c>
+      <c r="B3404">
+        <v>3562</v>
+      </c>
+      <c r="C3404">
+        <v>5.17</v>
+      </c>
+      <c r="D3404" s="2">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:4">
+      <c r="A3405" s="1">
+        <v>3403</v>
+      </c>
+      <c r="B3405">
+        <v>3563</v>
+      </c>
+      <c r="C3405">
+        <v>5.24</v>
+      </c>
+      <c r="D3405" s="2">
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:4">
+      <c r="A3406" s="1">
+        <v>3404</v>
+      </c>
+      <c r="B3406">
+        <v>3564</v>
+      </c>
+      <c r="C3406">
+        <v>5.22</v>
+      </c>
+      <c r="D3406" s="2">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:4">
+      <c r="A3407" s="1">
+        <v>3405</v>
+      </c>
+      <c r="B3407">
+        <v>3565</v>
+      </c>
+      <c r="C3407">
+        <v>5.19</v>
+      </c>
+      <c r="D3407" s="2">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:4">
+      <c r="A3408" s="1">
+        <v>3406</v>
+      </c>
+      <c r="B3408">
+        <v>3566</v>
+      </c>
+      <c r="C3408">
+        <v>5.32</v>
+      </c>
+      <c r="D3408" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:4">
+      <c r="A3409" s="1">
+        <v>3407</v>
+      </c>
+      <c r="B3409">
+        <v>3567</v>
+      </c>
+      <c r="C3409">
+        <v>5.21</v>
+      </c>
+      <c r="D3409" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:4">
+      <c r="A3410" s="1">
+        <v>3408</v>
+      </c>
+      <c r="B3410">
+        <v>3568</v>
+      </c>
+      <c r="C3410">
+        <v>5.19</v>
+      </c>
+      <c r="D3410" s="2">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:4">
+      <c r="A3411" s="1">
+        <v>3409</v>
+      </c>
+      <c r="B3411">
+        <v>3569</v>
+      </c>
+      <c r="C3411">
+        <v>5.14</v>
+      </c>
+      <c r="D3411" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:4">
+      <c r="A3412" s="1">
+        <v>3410</v>
+      </c>
+      <c r="B3412">
+        <v>3572</v>
+      </c>
+      <c r="C3412">
+        <v>5.18</v>
+      </c>
+      <c r="D3412" s="2">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:4">
+      <c r="A3413" s="1">
+        <v>3411</v>
+      </c>
+      <c r="B3413">
+        <v>3573</v>
+      </c>
+      <c r="C3413">
+        <v>5.2</v>
+      </c>
+      <c r="D3413" s="2">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:4">
+      <c r="A3414" s="1">
+        <v>3412</v>
+      </c>
+      <c r="B3414">
+        <v>3574</v>
+      </c>
+      <c r="C3414">
+        <v>5.15</v>
+      </c>
+      <c r="D3414" s="2">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:4">
+      <c r="A3415" s="1">
+        <v>3413</v>
+      </c>
+      <c r="B3415">
+        <v>3575</v>
+      </c>
+      <c r="C3415">
+        <v>5.17</v>
+      </c>
+      <c r="D3415" s="2">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:4">
+      <c r="A3416" s="1">
+        <v>3414</v>
+      </c>
+      <c r="B3416">
+        <v>3576</v>
+      </c>
+      <c r="C3416">
+        <v>5.23</v>
+      </c>
+      <c r="D3416" s="2">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:4">
+      <c r="A3417" s="1">
+        <v>3415</v>
+      </c>
+      <c r="B3417">
+        <v>3577</v>
+      </c>
+      <c r="C3417">
+        <v>5.32</v>
+      </c>
+      <c r="D3417" s="2">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:4">
+      <c r="A3418" s="1">
+        <v>3416</v>
+      </c>
+      <c r="B3418">
+        <v>3582</v>
+      </c>
+      <c r="C3418">
+        <v>5.24</v>
+      </c>
+      <c r="D3418" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:4">
+      <c r="A3419" s="1">
+        <v>3417</v>
+      </c>
+      <c r="B3419">
+        <v>3583</v>
+      </c>
+      <c r="C3419">
+        <v>5.08</v>
+      </c>
+      <c r="D3419" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:4">
+      <c r="A3420" s="1">
+        <v>3418</v>
+      </c>
+      <c r="B3420">
+        <v>3584</v>
+      </c>
+      <c r="C3420">
+        <v>5.08</v>
+      </c>
+      <c r="D3420" s="2">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:4">
+      <c r="A3421" s="1">
+        <v>3419</v>
+      </c>
+      <c r="B3421">
+        <v>3585</v>
+      </c>
+      <c r="C3421">
+        <v>5.12</v>
+      </c>
+      <c r="D3421" s="2">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:4">
+      <c r="A3422" s="1">
+        <v>3420</v>
+      </c>
+      <c r="B3422">
+        <v>3586</v>
+      </c>
+      <c r="C3422">
+        <v>5.04</v>
+      </c>
+      <c r="D3422" s="2">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:4">
+      <c r="A3423" s="1">
+        <v>3421</v>
+      </c>
+      <c r="B3423">
+        <v>3588</v>
+      </c>
+      <c r="C3423">
+        <v>5.09</v>
+      </c>
+      <c r="D3423" s="2">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:4">
+      <c r="A3424" s="1">
+        <v>3422</v>
+      </c>
+      <c r="B3424">
+        <v>3589</v>
+      </c>
+      <c r="C3424">
+        <v>5.03</v>
+      </c>
+      <c r="D3424" s="2">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:4">
+      <c r="A3425" s="1">
+        <v>3423</v>
+      </c>
+      <c r="B3425">
+        <v>3590</v>
+      </c>
+      <c r="C3425">
+        <v>5.07</v>
+      </c>
+      <c r="D3425" s="2">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:4">
+      <c r="A3426" s="1">
+        <v>3424</v>
+      </c>
+      <c r="B3426">
+        <v>3591</v>
+      </c>
+      <c r="C3426">
+        <v>5.12</v>
+      </c>
+      <c r="D3426" s="2">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:4">
+      <c r="A3427" s="1">
+        <v>3425</v>
+      </c>
+      <c r="B3427">
+        <v>3592</v>
+      </c>
+      <c r="C3427">
+        <v>5.19</v>
+      </c>
+      <c r="D3427" s="2">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:4">
+      <c r="A3428" s="1">
+        <v>3426</v>
+      </c>
+      <c r="B3428">
+        <v>3593</v>
+      </c>
+      <c r="C3428">
+        <v>5.2</v>
+      </c>
+      <c r="D3428" s="2">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:4">
+      <c r="A3429" s="1">
+        <v>3427</v>
+      </c>
+      <c r="B3429">
+        <v>3594</v>
+      </c>
+      <c r="C3429">
+        <v>5.12</v>
+      </c>
+      <c r="D3429" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:4">
+      <c r="A3430" s="1">
+        <v>3428</v>
+      </c>
+      <c r="B3430">
+        <v>3595</v>
+      </c>
+      <c r="C3430">
+        <v>5.05</v>
+      </c>
+      <c r="D3430" s="2">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:4">
+      <c r="A3431" s="1">
+        <v>3429</v>
+      </c>
+      <c r="B3431">
+        <v>3596</v>
+      </c>
+      <c r="C3431">
+        <v>5.1</v>
+      </c>
+      <c r="D3431" s="2">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:4">
+      <c r="A3432" s="1">
+        <v>3430</v>
+      </c>
+      <c r="B3432">
+        <v>3597</v>
+      </c>
+      <c r="C3432">
+        <v>5.15</v>
+      </c>
+      <c r="D3432" s="2">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:4">
+      <c r="A3433" s="1">
+        <v>3431</v>
+      </c>
+      <c r="B3433">
+        <v>3598</v>
+      </c>
+      <c r="C3433">
+        <v>5.2</v>
+      </c>
+      <c r="D3433" s="2">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:4">
+      <c r="A3434" s="1">
+        <v>3432</v>
+      </c>
+      <c r="B3434">
+        <v>3599</v>
+      </c>
+      <c r="C3434">
+        <v>5.23</v>
+      </c>
+      <c r="D3434" s="2">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:4">
+      <c r="A3435" s="1">
+        <v>3433</v>
+      </c>
+      <c r="B3435">
+        <v>3600</v>
+      </c>
+      <c r="C3435">
+        <v>5.3</v>
+      </c>
+      <c r="D3435" s="2">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:4">
+      <c r="A3436" s="1">
+        <v>3434</v>
+      </c>
+      <c r="B3436">
+        <v>3601</v>
+      </c>
+      <c r="C3436">
+        <v>5.32</v>
+      </c>
+      <c r="D3436" s="2">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:4">
+      <c r="A3437" s="1">
+        <v>3435</v>
+      </c>
+      <c r="B3437">
+        <v>3602</v>
+      </c>
+      <c r="C3437">
+        <v>5.36</v>
+      </c>
+      <c r="D3437" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:4">
+      <c r="A3438" s="1">
+        <v>3436</v>
+      </c>
+      <c r="B3438">
+        <v>3603</v>
+      </c>
+      <c r="C3438">
+        <v>5.37</v>
+      </c>
+      <c r="D3438" s="2">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:4">
+      <c r="A3439" s="1">
+        <v>3437</v>
+      </c>
+      <c r="B3439">
+        <v>3604</v>
+      </c>
+      <c r="C3439">
+        <v>5.41</v>
+      </c>
+      <c r="D3439" s="2">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:4">
+      <c r="A3440" s="1">
+        <v>3438</v>
+      </c>
+      <c r="B3440">
+        <v>3605</v>
+      </c>
+      <c r="C3440">
+        <v>5.45</v>
+      </c>
+      <c r="D3440" s="2">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:4">
+      <c r="A3441" s="1">
+        <v>3439</v>
+      </c>
+      <c r="B3441">
+        <v>3606</v>
+      </c>
+      <c r="C3441">
+        <v>5.43</v>
+      </c>
+      <c r="D3441" s="2">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:4">
+      <c r="A3442" s="1">
+        <v>3440</v>
+      </c>
+      <c r="B3442">
+        <v>3607</v>
+      </c>
+      <c r="C3442">
+        <v>5.43</v>
+      </c>
+      <c r="D3442" s="2">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:4">
+      <c r="A3443" s="1">
+        <v>3441</v>
+      </c>
+      <c r="B3443">
+        <v>3608</v>
+      </c>
+      <c r="C3443">
+        <v>5.36</v>
+      </c>
+      <c r="D3443" s="2">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:4">
+      <c r="A3444" s="1">
+        <v>3442</v>
+      </c>
+      <c r="B3444">
+        <v>3609</v>
+      </c>
+      <c r="C3444">
+        <v>5.33</v>
+      </c>
+      <c r="D3444" s="2">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:4">
+      <c r="A3445" s="1">
+        <v>3443</v>
+      </c>
+      <c r="B3445">
+        <v>3610</v>
+      </c>
+      <c r="C3445">
+        <v>5.23</v>
+      </c>
+      <c r="D3445" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:4">
+      <c r="A3446" s="1">
+        <v>3444</v>
+      </c>
+      <c r="B3446">
+        <v>3611</v>
+      </c>
+      <c r="C3446">
+        <v>5.27</v>
+      </c>
+      <c r="D3446" s="2">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:4">
+      <c r="A3447" s="1">
+        <v>3445</v>
+      </c>
+      <c r="B3447">
+        <v>3612</v>
+      </c>
+      <c r="C3447">
+        <v>5.3</v>
+      </c>
+      <c r="D3447" s="2">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:4">
+      <c r="A3448" s="1">
+        <v>3446</v>
+      </c>
+      <c r="B3448">
+        <v>3613</v>
+      </c>
+      <c r="C3448">
+        <v>5.3</v>
+      </c>
+      <c r="D3448" s="2">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:4">
+      <c r="A3449" s="1">
+        <v>3447</v>
+      </c>
+      <c r="B3449">
+        <v>3614</v>
+      </c>
+      <c r="C3449">
+        <v>5.4</v>
+      </c>
+      <c r="D3449" s="2">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:4">
+      <c r="A3450" s="1">
+        <v>3448</v>
+      </c>
+      <c r="B3450">
+        <v>3615</v>
+      </c>
+      <c r="C3450">
+        <v>5.32</v>
+      </c>
+      <c r="D3450" s="2">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:4">
+      <c r="A3451" s="1">
+        <v>3449</v>
+      </c>
+      <c r="B3451">
+        <v>3616</v>
+      </c>
+      <c r="C3451">
+        <v>5.34</v>
+      </c>
+      <c r="D3451" s="2">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:4">
+      <c r="A3452" s="1">
+        <v>3450</v>
+      </c>
+      <c r="B3452">
+        <v>3617</v>
+      </c>
+      <c r="C3452">
+        <v>5.3</v>
+      </c>
+      <c r="D3452" s="2">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:4">
+      <c r="A3453" s="1">
+        <v>3451</v>
+      </c>
+      <c r="B3453">
+        <v>3618</v>
+      </c>
+      <c r="C3453">
+        <v>5.3</v>
+      </c>
+      <c r="D3453" s="2">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:4">
+      <c r="A3454" s="1">
+        <v>3452</v>
+      </c>
+      <c r="B3454">
+        <v>3619</v>
+      </c>
+      <c r="C3454">
+        <v>5.26</v>
+      </c>
+      <c r="D3454" s="2">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:4">
+      <c r="A3455" s="1">
+        <v>3453</v>
+      </c>
+      <c r="B3455">
+        <v>3620</v>
+      </c>
+      <c r="C3455">
+        <v>5.21</v>
+      </c>
+      <c r="D3455" s="2">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:4">
+      <c r="A3456" s="1">
+        <v>3454</v>
+      </c>
+      <c r="B3456">
+        <v>3621</v>
+      </c>
+      <c r="C3456">
+        <v>5.24</v>
+      </c>
+      <c r="D3456" s="2">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:4">
+      <c r="A3457" s="1">
+        <v>3455</v>
+      </c>
+      <c r="B3457">
+        <v>3622</v>
+      </c>
+      <c r="C3457">
+        <v>5.24</v>
+      </c>
+      <c r="D3457" s="2">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:4">
+      <c r="A3458" s="1">
+        <v>3456</v>
+      </c>
+      <c r="B3458">
+        <v>3623</v>
+      </c>
+      <c r="C3458">
+        <v>5.19</v>
+      </c>
+      <c r="D3458" s="2">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:4">
+      <c r="A3459" s="1">
+        <v>3457</v>
+      </c>
+      <c r="B3459">
+        <v>3624</v>
+      </c>
+      <c r="C3459">
+        <v>5.18</v>
+      </c>
+      <c r="D3459" s="2">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:4">
+      <c r="A3460" s="1">
+        <v>3458</v>
+      </c>
+      <c r="B3460">
+        <v>3625</v>
+      </c>
+      <c r="C3460">
+        <v>5.18</v>
+      </c>
+      <c r="D3460" s="2">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:4">
+      <c r="A3461" s="1">
+        <v>3459</v>
+      </c>
+      <c r="B3461">
+        <v>3626</v>
+      </c>
+      <c r="C3461">
+        <v>5.16</v>
+      </c>
+      <c r="D3461" s="2">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:4">
+      <c r="A3462" s="1">
+        <v>3460</v>
+      </c>
+      <c r="B3462">
+        <v>3627</v>
+      </c>
+      <c r="C3462">
+        <v>5.15</v>
+      </c>
+      <c r="D3462" s="2">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:4">
+      <c r="A3463" s="1">
+        <v>3461</v>
+      </c>
+      <c r="B3463">
+        <v>3628</v>
+      </c>
+      <c r="C3463">
+        <v>5.17</v>
+      </c>
+      <c r="D3463" s="2">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:4">
+      <c r="A3464" s="1">
+        <v>3462</v>
+      </c>
+      <c r="B3464">
+        <v>3629</v>
+      </c>
+      <c r="C3464">
+        <v>5.17</v>
+      </c>
+      <c r="D3464" s="2">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:4">
+      <c r="A3465" s="1">
+        <v>3463</v>
+      </c>
+      <c r="B3465">
+        <v>3631</v>
+      </c>
+      <c r="C3465">
+        <v>5.18</v>
+      </c>
+      <c r="D3465" s="2">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:4">
+      <c r="A3466" s="1">
+        <v>3464</v>
+      </c>
+      <c r="B3466">
+        <v>3632</v>
+      </c>
+      <c r="C3466">
+        <v>5.17</v>
+      </c>
+      <c r="D3466" s="2">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:4">
+      <c r="A3467" s="1">
+        <v>3465</v>
+      </c>
+      <c r="B3467">
+        <v>3633</v>
+      </c>
+      <c r="C3467">
+        <v>5.17</v>
+      </c>
+      <c r="D3467" s="2">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:4">
+      <c r="A3468" s="1">
+        <v>3466</v>
+      </c>
+      <c r="B3468">
+        <v>3634</v>
+      </c>
+      <c r="C3468">
+        <v>5.19</v>
+      </c>
+      <c r="D3468" s="2">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:4">
+      <c r="A3469" s="1">
+        <v>3467</v>
+      </c>
+      <c r="B3469">
+        <v>3635</v>
+      </c>
+      <c r="C3469">
+        <v>5.34</v>
+      </c>
+      <c r="D3469" s="2">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:4">
+      <c r="A3470" s="1">
+        <v>3468</v>
+      </c>
+      <c r="B3470">
+        <v>3636</v>
+      </c>
+      <c r="C3470">
+        <v>5.39</v>
+      </c>
+      <c r="D3470" s="2">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:4">
+      <c r="A3471" s="1">
+        <v>3469</v>
+      </c>
+      <c r="B3471">
+        <v>3637</v>
+      </c>
+      <c r="C3471">
+        <v>5.38</v>
+      </c>
+      <c r="D3471" s="2">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:4">
+      <c r="A3472" s="1">
+        <v>3470</v>
+      </c>
+      <c r="B3472">
+        <v>3640</v>
+      </c>
+      <c r="C3472">
+        <v>5.13</v>
+      </c>
+      <c r="D3472" s="2">
+        <v>45120</v>
       </c>
     </row>
   </sheetData>
